--- a/项目设计/广大项目DB设计.xlsx
+++ b/项目设计/广大项目DB设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38440" windowHeight="18700" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="投诉表" sheetId="8" r:id="rId8"/>
     <sheet name="订单评价" sheetId="9" r:id="rId9"/>
     <sheet name="系统通知" sheetId="10" r:id="rId10"/>
-    <sheet name="教练余额表" sheetId="11" r:id="rId11"/>
-    <sheet name="学员余额" sheetId="12" r:id="rId12"/>
-    <sheet name="其他" sheetId="13" r:id="rId13"/>
-    <sheet name="后台新增" sheetId="14" r:id="rId14"/>
-    <sheet name="订单提醒" sheetId="15" r:id="rId15"/>
-    <sheet name="小巴券" sheetId="16" r:id="rId16"/>
-    <sheet name="统计" sheetId="17" r:id="rId17"/>
+    <sheet name="教练推荐表" sheetId="18" r:id="rId11"/>
+    <sheet name="教练余额表" sheetId="11" r:id="rId12"/>
+    <sheet name="学员余额" sheetId="12" r:id="rId13"/>
+    <sheet name="其他" sheetId="13" r:id="rId14"/>
+    <sheet name="后台新增" sheetId="14" r:id="rId15"/>
+    <sheet name="订单提醒" sheetId="15" r:id="rId16"/>
+    <sheet name="小巴券" sheetId="16" r:id="rId17"/>
+    <sheet name="统计" sheetId="17" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1016">
   <si>
     <t>编号</t>
   </si>
@@ -2186,10 +2187,6 @@
   </si>
   <si>
     <t>车辆行驶证到期日期&lt;2025-02-12&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_cardpicf</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3885,10 +3882,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>coachid</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>t_active_record</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4291,14 +4284,100 @@
   </si>
   <si>
     <t>是否已经使用  0:未使用  1:已经使用  2:已兑换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练员推荐表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练用邀请码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invited_coachid</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_cardpicf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐注册时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐表类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-教练推荐教练
+1-教练推荐学员
+2-学员推荐学员
+3-学员推荐教练</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+  </si>
+  <si>
+    <t>推荐记录ID，主键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invited_studentid</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被推荐教练ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被推荐学员ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐之后所获得的奖励，默认为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_recommend</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4736,9 +4815,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5081,24 +5160,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="50.375" customWidth="1"/>
+    <col min="6" max="6" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="1" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:6">
       <c r="B2" s="35" t="s">
         <v>13</v>
@@ -5108,7 +5187,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1">
+    <row r="3" spans="2:6" ht="14.25" thickBot="1">
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -5391,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F24" s="30"/>
     </row>
@@ -5406,7 +5485,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F25" s="30"/>
     </row>
@@ -5421,7 +5500,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F26" s="30"/>
     </row>
@@ -5436,7 +5515,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F27" s="30"/>
     </row>
@@ -5451,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F28" s="30"/>
     </row>
@@ -5466,7 +5545,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F29" s="30"/>
     </row>
@@ -5481,7 +5560,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F30" s="30"/>
     </row>
@@ -5496,7 +5575,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F31" s="30"/>
     </row>
@@ -5511,7 +5590,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F32" s="30"/>
     </row>
@@ -5526,7 +5605,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F33" s="30"/>
     </row>
@@ -5541,7 +5620,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F34" s="30"/>
     </row>
@@ -5556,7 +5635,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F35" s="30"/>
     </row>
@@ -5571,7 +5650,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F36" s="30"/>
     </row>
@@ -5586,7 +5665,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F37" s="30"/>
     </row>
@@ -5601,7 +5680,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F38" s="30"/>
     </row>
@@ -5616,7 +5695,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F39" s="30"/>
     </row>
@@ -5631,7 +5710,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F40" s="30"/>
     </row>
@@ -5646,7 +5725,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F41" s="30"/>
     </row>
@@ -5661,7 +5740,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F42" s="30"/>
     </row>
@@ -5676,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F43" s="30"/>
     </row>
@@ -5688,10 +5767,10 @@
         <v>42163</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F44" s="30"/>
     </row>
@@ -5706,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F45" s="30"/>
     </row>
@@ -5721,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F46" s="30"/>
     </row>
@@ -5736,7 +5815,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F47" s="30"/>
     </row>
@@ -5865,27 +5944,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17">
+    <row r="3" spans="2:9" ht="18">
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
@@ -6017,7 +6096,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="28">
+    <row r="9" spans="2:9" ht="27">
       <c r="B9" s="2" t="s">
         <v>129</v>
       </c>
@@ -6038,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -6051,7 +6130,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="13" spans="2:9" ht="17">
+    <row r="13" spans="2:9" ht="18">
       <c r="B13" s="6" t="s">
         <v>154</v>
       </c>
@@ -6183,32 +6262,305 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18">
+      <c r="B2" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="36.75" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" ht="36.75" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" ht="27">
+      <c r="B10" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" ht="54">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -6245,7 +6597,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -6289,7 +6641,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>77</v>
@@ -6304,12 +6656,12 @@
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="49.5" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
@@ -6328,12 +6680,12 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>77</v>
@@ -6344,18 +6696,18 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>77</v>
@@ -6366,13 +6718,13 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H9" s="22">
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -6407,9 +6759,9 @@
       <c r="H11" s="23"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="13" spans="2:9" ht="17">
+    <row r="13" spans="2:9" ht="18">
       <c r="B13" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>229</v>
@@ -6511,7 +6863,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -6524,7 +6876,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="11"/>
@@ -6550,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="23.25" customHeight="1">
@@ -6595,12 +6947,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="17">
+    <row r="25" spans="2:9" ht="18">
       <c r="B25" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
@@ -6637,7 +6989,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -6661,7 +7013,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -6674,7 +7026,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="11"/>
@@ -6699,20 +7051,20 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H30" s="22">
         <v>0</v>
@@ -6721,7 +7073,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
@@ -6734,7 +7086,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="11"/>
@@ -6778,28 +7130,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
         <v>236</v>
       </c>
@@ -6841,7 +7193,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -6922,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -6957,9 +7309,9 @@
       <c r="H9" s="23"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="11" spans="2:9" ht="17">
+    <row r="11" spans="2:9" ht="18">
       <c r="B11" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>239</v>
@@ -7023,7 +7375,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -7043,7 +7395,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>77</v>
@@ -7061,7 +7413,7 @@
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
@@ -7085,7 +7437,7 @@
     </row>
     <row r="17" spans="2:9" ht="23.25" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>120</v>
@@ -7105,7 +7457,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>120</v>
@@ -7125,12 +7477,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="17">
+    <row r="21" spans="2:9" ht="18">
       <c r="B21" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -7167,7 +7519,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -7191,7 +7543,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -7209,12 +7561,12 @@
       <c r="H24" s="22"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="2:9" ht="28">
+    <row r="25" spans="2:9" ht="27">
       <c r="B25" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -7224,16 +7576,16 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>77</v>
@@ -7251,7 +7603,7 @@
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>41</v>
@@ -7270,52 +7622,52 @@
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D28" s="2">
         <v>255</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="D29" s="2">
         <v>255</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9" ht="33.75" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>120</v>
@@ -7371,28 +7723,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
@@ -7548,7 +7900,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="17">
+    <row r="11" spans="2:9" ht="18">
       <c r="B11" s="6" t="s">
         <v>328</v>
       </c>
@@ -7704,9 +8056,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="17">
+    <row r="20" spans="2:9" ht="18">
       <c r="B20" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>240</v>
@@ -7785,18 +8137,18 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H23" s="22">
         <v>2880</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -7809,18 +8161,18 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H24" s="22">
         <v>30</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="26">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="24">
       <c r="B25" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -7833,18 +8185,18 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H25" s="22">
         <v>60</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -7857,18 +8209,18 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H26" s="22">
         <v>2880</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -7881,7 +8233,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H27" s="22">
         <v>0</v>
@@ -7890,10 +8242,10 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="10" t="s">
@@ -7901,7 +8253,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H28" s="22">
         <v>0</v>
@@ -7910,18 +8262,18 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H29" s="22">
         <v>0</v>
@@ -7930,10 +8282,10 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="10" t="s">
@@ -7941,17 +8293,17 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D31" s="2">
         <v>1000</v>
@@ -7961,17 +8313,17 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D32" s="2">
         <v>1000</v>
@@ -7981,14 +8333,14 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>19</v>
@@ -7997,22 +8349,22 @@
         <v>10</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H33" s="22">
         <v>15</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
@@ -8021,22 +8373,22 @@
         <v>10</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H34" s="22">
         <v>30</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
@@ -8049,18 +8401,18 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H35" s="22">
         <v>100</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -8073,7 +8425,7 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H36" s="22">
         <v>1</v>
@@ -8082,10 +8434,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -8095,21 +8447,21 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H37" s="22">
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -8119,16 +8471,16 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H38" s="22">
         <v>1</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="26">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="24">
       <c r="B39" s="2" t="s">
         <v>448</v>
       </c>
@@ -8143,12 +8495,12 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="42" spans="2:9" ht="17">
+    <row r="42" spans="2:9" ht="18">
       <c r="B42" s="6" t="s">
         <v>317</v>
       </c>
@@ -8301,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8326,7 +8678,7 @@
       </c>
       <c r="I49" s="11"/>
     </row>
-    <row r="52" spans="2:9" ht="17">
+    <row r="52" spans="2:9" ht="18">
       <c r="B52" s="6" t="s">
         <v>335</v>
       </c>
@@ -8394,7 +8746,7 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
@@ -8416,7 +8768,7 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>24</v>
@@ -8457,12 +8809,12 @@
         <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>41</v>
@@ -8481,12 +8833,12 @@
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>41</v>
@@ -8499,18 +8851,18 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>41</v>
@@ -8534,10 +8886,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D61" s="2">
         <v>500</v>
@@ -8547,11 +8899,11 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8576,12 +8928,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="17">
+    <row r="65" spans="2:9" ht="18">
       <c r="B65" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="42"/>
@@ -8719,19 +9071,19 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H71" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="74" spans="2:9" ht="17">
+    <row r="74" spans="2:9" ht="18">
       <c r="B74" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="42"/>
@@ -8768,7 +9120,7 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
@@ -8794,7 +9146,7 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
@@ -8806,19 +9158,19 @@
         <v>20</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H77" s="22" t="s">
         <v>849</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>850</v>
       </c>
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>41</v>
@@ -8831,18 +9183,18 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H78" s="22">
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>41</v>
@@ -8855,98 +9207,98 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H79" s="22">
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="D80" s="2">
         <v>50</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="11"/>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D81" s="2">
         <v>255</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="11"/>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D82" s="2">
         <v>255</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="11"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D83" s="2">
         <v>255</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>120</v>
@@ -8957,29 +9309,29 @@
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I84" s="11"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="28" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="16" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="16" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C89" s="16">
         <v>1</v>
@@ -8987,7 +9339,7 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="16" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C90" s="16">
         <v>2</v>
@@ -8995,7 +9347,7 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="16" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C91" s="16">
         <v>3</v>
@@ -9003,7 +9355,7 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C92" s="16">
         <v>4</v>
@@ -9011,7 +9363,7 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="16" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C93" s="16">
         <v>5</v>
@@ -9057,28 +9409,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
         <v>478</v>
       </c>
@@ -9236,7 +9586,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -9245,18 +9595,18 @@
         <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -9267,7 +9617,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="11"/>
@@ -9285,7 +9635,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>23</v>
@@ -9314,7 +9664,7 @@
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="15" spans="2:9" ht="17">
+    <row r="15" spans="2:9" ht="18">
       <c r="B15" s="6" t="s">
         <v>495</v>
       </c>
@@ -9382,7 +9732,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -9400,7 +9750,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="21" spans="2:9" ht="17">
+    <row r="21" spans="2:9" ht="18">
       <c r="B21" s="6" t="s">
         <v>505</v>
       </c>
@@ -9442,7 +9792,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -9479,7 +9829,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>23</v>
@@ -9488,7 +9838,7 @@
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -9497,18 +9847,18 @@
         <v>25</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -9517,18 +9867,18 @@
         <v>50</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>24</v>
@@ -9537,29 +9887,29 @@
         <v>255</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H28" s="22">
         <v>0</v>
@@ -9568,7 +9918,7 @@
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
@@ -9581,7 +9931,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H29" s="22">
         <v>0</v>
@@ -9603,7 +9953,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="11"/>
@@ -9624,33 +9974,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>638</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>639</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -9687,10 +10037,10 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -9702,21 +10052,21 @@
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -9726,34 +10076,34 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>120</v>
@@ -9764,19 +10114,19 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>646</v>
-      </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="10" spans="2:9" ht="17">
+    <row r="10" spans="2:9" ht="18">
       <c r="B10" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>649</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>650</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -9813,7 +10163,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -9834,15 +10184,15 @@
         <v>23</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16.5" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
@@ -9859,7 +10209,7 @@
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -9872,57 +10222,57 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -9932,7 +10282,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="11"/>
@@ -9962,33 +10312,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -10025,7 +10375,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -10046,12 +10396,12 @@
         <v>23</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>120</v>
@@ -10062,7 +10412,7 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>23</v>
@@ -10071,20 +10421,20 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H6" s="22">
         <v>0</v>
@@ -10093,20 +10443,20 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H7" s="22">
         <v>0</v>
@@ -10115,44 +10465,44 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H9" s="22">
         <v>0</v>
@@ -10161,7 +10511,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -10170,11 +10520,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H10" s="22">
         <v>0</v>
@@ -10183,40 +10533,40 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>682</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>683</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H12" s="22">
         <v>0</v>
@@ -10225,32 +10575,32 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H13" s="22">
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="16" spans="2:9" ht="17">
+    <row r="16" spans="2:9" ht="18">
       <c r="B16" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -10313,7 +10663,7 @@
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -10326,7 +10676,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H19" s="22">
         <v>0</v>
@@ -10335,7 +10685,7 @@
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -10348,47 +10698,47 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H22" s="22">
         <v>0</v>
@@ -10397,31 +10747,31 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H23" s="22">
         <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -10434,7 +10784,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H24" s="22">
         <v>0</v>
@@ -10443,7 +10793,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>41</v>
@@ -10456,7 +10806,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H25" s="22">
         <v>0</v>
@@ -10465,10 +10815,10 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="10" t="s">
@@ -10476,7 +10826,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>23</v>
@@ -10485,7 +10835,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -10494,11 +10844,11 @@
         <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H27" s="22">
         <v>0</v>
@@ -10507,20 +10857,20 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H28" s="22">
         <v>0</v>
@@ -10529,32 +10879,32 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="D29" s="2">
-        <v>10</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H29" s="22">
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="32" spans="2:9" ht="17">
+    <row r="32" spans="2:9" ht="18">
       <c r="B32" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -10591,7 +10941,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
@@ -10617,7 +10967,7 @@
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
@@ -10630,7 +10980,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H35" s="22">
         <v>0</v>
@@ -10639,7 +10989,7 @@
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -10652,14 +11002,14 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>120</v>
@@ -10670,7 +11020,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>235</v>
@@ -10679,7 +11029,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>19</v>
@@ -10692,7 +11042,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H38" s="22">
         <v>0</v>
@@ -10701,7 +11051,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>41</v>
@@ -10714,18 +11064,18 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H39" s="22">
         <v>0</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>19</v>
@@ -10734,11 +11084,11 @@
         <v>10</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H40" s="22">
         <v>0</v>
@@ -10760,7 +11110,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H41" s="22">
         <v>0</v>
@@ -10769,7 +11119,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>19</v>
@@ -10782,7 +11132,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H42" s="22">
         <v>0</v>
@@ -10805,33 +11155,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -10868,7 +11218,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -10889,12 +11239,12 @@
         <v>23</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -10903,69 +11253,69 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H5" s="22">
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H6" s="22">
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D7" s="2">
         <v>255</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D8" s="2">
         <v>255</v>
@@ -10975,14 +11325,14 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>120</v>
@@ -10993,19 +11343,19 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>235</v>
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="17">
+    <row r="12" spans="2:9" ht="18">
       <c r="B12" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -11068,7 +11418,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -11081,21 +11431,21 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H15" s="22">
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
@@ -11103,7 +11453,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H16" s="22">
         <v>0</v>
@@ -11112,10 +11462,10 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
@@ -11123,17 +11473,17 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
@@ -11141,17 +11491,17 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="10" t="s">
@@ -11159,17 +11509,17 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="23" spans="2:9" ht="17">
+    <row r="23" spans="2:9" ht="18">
       <c r="B23" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
@@ -11206,7 +11556,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -11232,7 +11582,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -11245,21 +11595,21 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H26" s="22">
         <v>0</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="10" t="s">
@@ -11267,7 +11617,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H27" s="22">
         <v>0</v>
@@ -11276,10 +11626,10 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="10" t="s">
@@ -11287,17 +11637,17 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="10" t="s">
@@ -11305,7 +11655,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="11"/>
@@ -11327,23 +11677,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11352,9 +11702,9 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>18</v>
@@ -11466,7 +11816,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="2:9" ht="28">
+    <row r="7" spans="2:9" ht="27">
       <c r="B7" s="2" t="s">
         <v>369</v>
       </c>
@@ -11806,10 +12156,10 @@
     </row>
     <row r="22" spans="2:9" ht="68.25" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="10" t="s">
@@ -11831,7 +12181,7 @@
         <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="10" t="s">
@@ -11848,7 +12198,7 @@
     </row>
     <row r="24" spans="2:9" ht="17.25" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>120</v>
@@ -11934,7 +12284,7 @@
     </row>
     <row r="28" spans="2:9" ht="70.5" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>201</v>
@@ -12005,7 +12355,7 @@
         <v>326</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -12024,7 +12374,7 @@
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>24</v>
@@ -12037,17 +12387,17 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D33" s="2">
         <v>10</v>
@@ -12055,7 +12405,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -12067,7 +12417,7 @@
         <v>195</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="10" t="s">
@@ -12086,38 +12436,38 @@
     </row>
     <row r="35" spans="2:9" ht="20.25" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D35" s="2">
         <v>255</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="2:9" ht="21.75" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="11"/>
@@ -12132,7 +12482,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="19"/>
     </row>
-    <row r="39" spans="2:9" ht="17">
+    <row r="39" spans="2:9" ht="18">
       <c r="B39" s="6" t="s">
         <v>255</v>
       </c>
@@ -12291,23 +12641,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12326,9 +12676,9 @@
       <c r="H2" s="23"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="2:9" ht="17">
+    <row r="3" spans="2:9" ht="18">
       <c r="B3" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>31</v>
@@ -12485,7 +12835,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -12532,7 +12882,7 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="26">
+    <row r="12" spans="2:9" ht="24">
       <c r="B12" s="25" t="s">
         <v>460</v>
       </c>
@@ -12600,7 +12950,7 @@
       </c>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="26">
+    <row r="15" spans="2:9" ht="24">
       <c r="B15" s="25" t="s">
         <v>461</v>
       </c>
@@ -12668,7 +13018,7 @@
       </c>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="26">
+    <row r="18" spans="2:9" ht="24">
       <c r="B18" s="25" t="s">
         <v>380</v>
       </c>
@@ -12716,7 +13066,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="25" t="s">
-        <v>515</v>
+        <v>1002</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -12729,7 +13079,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H20" s="22">
         <v>0</v>
@@ -12738,7 +13088,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -12751,14 +13101,14 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H21" s="22">
         <v>0</v>
       </c>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="26">
+    <row r="22" spans="2:9" ht="24">
       <c r="B22" s="25" t="s">
         <v>459</v>
       </c>
@@ -12782,7 +13132,7 @@
     </row>
     <row r="23" spans="2:9" ht="33" customHeight="1">
       <c r="B23" s="25" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
@@ -12826,7 +13176,7 @@
     </row>
     <row r="25" spans="2:9" ht="33" customHeight="1">
       <c r="B25" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -12866,10 +13216,10 @@
     </row>
     <row r="27" spans="2:9" ht="29.25" customHeight="1">
       <c r="B27" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -12879,7 +13229,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H27" s="22">
         <v>0</v>
@@ -12888,7 +13238,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
@@ -12910,10 +13260,10 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -12923,14 +13273,14 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>41</v>
@@ -12949,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13306,7 +13656,7 @@
     </row>
     <row r="47" spans="2:9" ht="16.5" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>120</v>
@@ -13350,7 +13700,7 @@
     </row>
     <row r="49" spans="2:9" ht="25.5" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>41</v>
@@ -13369,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="25.5" customHeight="1">
@@ -13393,12 +13743,12 @@
         <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="16.5" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>41</v>
@@ -13407,22 +13757,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H51" s="22">
         <v>0</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>120</v>
@@ -13433,14 +13783,14 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="2:9" ht="16.5" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>120</v>
@@ -13451,38 +13801,38 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="2:9" ht="16.5" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>691</v>
-      </c>
-      <c r="D54" s="2">
-        <v>10</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>692</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H54" s="22">
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>41</v>
@@ -13495,36 +13845,36 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H55" s="22">
         <v>0</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="16.5" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="2:9" ht="16.5" customHeight="1">
       <c r="B57" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
@@ -13537,14 +13887,14 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="2:9" ht="16.5" customHeight="1">
       <c r="B58" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>41</v>
@@ -13553,17 +13903,17 @@
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H58" s="22">
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="33.75" customHeight="1">
@@ -13590,43 +13940,43 @@
     </row>
     <row r="60" spans="2:9" ht="20.25" customHeight="1">
       <c r="B60" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D60" s="2">
         <v>255</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="11"/>
     </row>
     <row r="61" spans="2:9" ht="21.75" customHeight="1">
       <c r="B61" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="64" spans="2:9" ht="17">
+    <row r="64" spans="2:9" ht="18">
       <c r="B64" s="6" t="s">
         <v>249</v>
       </c>
@@ -13754,27 +14104,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C27" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
@@ -13862,9 +14212,9 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="26">
+    <row r="6" spans="2:9" ht="24">
       <c r="B6" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -13877,7 +14227,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>23</v>
@@ -13904,7 +14254,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="10" spans="2:9" ht="17">
+    <row r="10" spans="2:9" ht="18">
       <c r="B10" s="6" t="s">
         <v>415</v>
       </c>
@@ -13946,7 +14296,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -14013,7 +14363,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1"/>
-    <row r="17" spans="2:9" ht="17">
+    <row r="17" spans="2:9" ht="18">
       <c r="B17" s="6" t="s">
         <v>441</v>
       </c>
@@ -14138,27 +14488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
@@ -14290,7 +14640,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" ht="42">
+    <row r="8" spans="2:9" ht="40.5">
       <c r="B8" s="2" t="s">
         <v>473</v>
       </c>
@@ -14373,27 +14723,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17">
+    <row r="3" spans="2:9" ht="18">
       <c r="B3" s="6" t="s">
         <v>355</v>
       </c>
@@ -14507,7 +14857,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -14526,12 +14876,12 @@
         <v>358</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="28">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="27">
       <c r="B9" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>221</v>
@@ -14544,18 +14894,18 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H9" s="22">
         <v>0</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="42">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="40.5">
       <c r="B10" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>359</v>
@@ -14568,13 +14918,13 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H10" s="22">
         <v>0</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -14596,12 +14946,12 @@
         <v>0</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>359</v>
@@ -14620,12 +14970,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -14649,7 +14999,7 @@
     </row>
     <row r="14" spans="2:9" ht="14.25" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>365</v>
@@ -14674,7 +15024,7 @@
     <row r="16" spans="2:9" ht="13.5" customHeight="1">
       <c r="B16" s="21"/>
     </row>
-    <row r="17" spans="2:9" ht="17">
+    <row r="17" spans="2:9" ht="18">
       <c r="B17" s="6" t="s">
         <v>351</v>
       </c>
@@ -14782,12 +15132,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="17">
+    <row r="24" spans="2:9" ht="18">
       <c r="B24" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>747</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>748</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
@@ -14824,7 +15174,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -14836,10 +15186,10 @@
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>23</v>
@@ -14848,7 +15198,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -14889,7 +15239,7 @@
         <v>23</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -14913,10 +15263,10 @@
         <v>23</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="28">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="27">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
@@ -14931,18 +15281,18 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H30" s="22">
         <v>0</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="42">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="40.5">
       <c r="B31" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>41</v>
@@ -14955,13 +15305,13 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H31" s="22">
         <v>0</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -14983,12 +15333,12 @@
         <v>0</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>41</v>
@@ -15007,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -15036,7 +15386,7 @@
     </row>
     <row r="35" spans="2:9" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
@@ -15060,10 +15410,10 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="10" t="s">
@@ -15071,10 +15421,10 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>759</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>760</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -15095,32 +15445,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="13.5" customHeight="1">
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="2:9" ht="17">
+    <row r="4" spans="2:9" ht="18">
       <c r="B4" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>98</v>
@@ -15208,7 +15558,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>896</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -15230,7 +15580,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>120</v>
@@ -15250,27 +15600,27 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>891</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>892</v>
       </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -15294,7 +15644,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>120</v>
@@ -15311,12 +15661,12 @@
         <v>23</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>120</v>
@@ -15338,7 +15688,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>221</v>
@@ -15362,7 +15712,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>222</v>
@@ -15379,12 +15729,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="372.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>221</v>
@@ -15403,12 +15753,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="309.75" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>221</v>
@@ -15495,36 +15845,36 @@
         <v>23</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H21" s="22">
         <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -15533,33 +15883,33 @@
         <v>50</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H22" s="22">
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H23" s="22">
         <v>0</v>
@@ -15568,7 +15918,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -15581,7 +15931,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H24" s="22">
         <v>0</v>
@@ -15590,7 +15940,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -15603,16 +15953,16 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H25" s="22">
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="28" spans="2:9" ht="17">
+    <row r="28" spans="2:9" ht="18">
       <c r="B28" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>267</v>
@@ -15717,7 +16067,7 @@
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="19.5" customHeight="1">
@@ -15731,7 +16081,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
@@ -15741,7 +16091,7 @@
         <v>23</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="17.25" customHeight="1">
@@ -15755,11 +16105,11 @@
         <v>50</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>23</v>
@@ -15777,11 +16127,11 @@
         <v>500</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>23</v>
@@ -15874,7 +16224,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="17">
+    <row r="42" spans="2:9" ht="18">
       <c r="B42" s="6" t="s">
         <v>407</v>
       </c>
@@ -15967,7 +16317,7 @@
         <v>410</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D46" s="2">
         <v>10</v>
@@ -15995,7 +16345,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1" t="s">
@@ -16017,7 +16367,7 @@
         <v>50</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1" t="s">
@@ -16039,7 +16389,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1" t="s">
@@ -16094,12 +16444,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="17">
+    <row r="54" spans="2:9" ht="18">
       <c r="B54" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
@@ -16151,7 +16501,7 @@
         <v>21</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>23</v>
@@ -16162,7 +16512,7 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
@@ -16171,11 +16521,11 @@
         <v>10</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H57" s="22">
         <v>0</v>
@@ -16184,7 +16534,7 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
@@ -16193,31 +16543,31 @@
         <v>10</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H58" s="22">
         <v>0</v>
       </c>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="2:9" ht="26">
+    <row r="59" spans="2:9">
       <c r="B59" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H59" s="22">
         <v>0</v>
@@ -16226,7 +16576,7 @@
     </row>
     <row r="60" spans="2:9" ht="24.75" customHeight="1">
       <c r="B60" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>19</v>
@@ -16235,11 +16585,11 @@
         <v>10</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H60" s="22">
         <v>0</v>
@@ -16266,27 +16616,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17">
+    <row r="3" spans="2:9" ht="18">
       <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
@@ -16428,7 +16778,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="17">
+    <row r="12" spans="2:9" ht="18">
       <c r="B12" s="6" t="s">
         <v>125</v>
       </c>
@@ -16579,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1">
@@ -16648,7 +16998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="42">
+    <row r="22" spans="2:9" ht="40.5">
       <c r="B22" s="2" t="s">
         <v>185</v>
       </c>
@@ -16669,15 +17019,15 @@
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="17">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18">
       <c r="B26" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>535</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>536</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
@@ -16714,7 +17064,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -16735,7 +17085,7 @@
         <v>23</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -16753,7 +17103,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>23</v>
@@ -16762,7 +17112,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>120</v>
@@ -16773,16 +17123,16 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>24</v>
@@ -16793,7 +17143,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="11"/>
@@ -16811,13 +17161,13 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -16837,29 +17187,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I19" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17">
+    <row r="3" spans="2:9" ht="18">
       <c r="B3" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>135</v>
@@ -16958,14 +17308,14 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -16978,7 +17328,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>23</v>
@@ -16987,7 +17337,7 @@
     </row>
     <row r="9" spans="2:9" ht="29.25" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
@@ -17006,7 +17356,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16.5" customHeight="1">
@@ -17099,7 +17449,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>120</v>
